--- a/Za_v_program/2025-06-04_Za_v_program.xlsx
+++ b/Za_v_program/2025-06-04_Za_v_program.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="cisco catalyst 3560G 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,11 +20,14 @@
     <sheet name="patch_e" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="patch_d" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="cisco catalyst 3560G 2" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="cisco catalyst 3560 3" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="cisco catalyst 3650" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="cisco catalyst 9200" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="cisco small buisnees" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="cisco catalyst 9300" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="STROP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="patch_k" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="patch_h" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="cisco catalyst 3560 3" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="cisco catalyst 3650" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="cisco catalyst 9200" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="cisco small buisnees" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="cisco catalyst 9300" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Port</t>
   </si>
@@ -204,6 +207,9 @@
     <t>SR</t>
   </si>
   <si>
+    <t xml:space="preserve">cisco catalyst 3560G 2</t>
+  </si>
+  <si>
     <t>j/24</t>
   </si>
   <si>
@@ -216,6 +222,21 @@
     <t>a/21</t>
   </si>
   <si>
+    <t>a/15</t>
+  </si>
+  <si>
+    <t>a/13</t>
+  </si>
+  <si>
+    <t>a/3</t>
+  </si>
+  <si>
+    <t>a/4</t>
+  </si>
+  <si>
+    <t>a/20</t>
+  </si>
+  <si>
     <t>c/8</t>
   </si>
   <si>
@@ -234,6 +255,12 @@
     <t>c/7</t>
   </si>
   <si>
+    <t>c/12</t>
+  </si>
+  <si>
+    <t>c/13</t>
+  </si>
+  <si>
     <t>b/1</t>
   </si>
   <si>
@@ -246,12 +273,21 @@
     <t>b/21</t>
   </si>
   <si>
+    <t>b/7</t>
+  </si>
+  <si>
     <t>e/1</t>
   </si>
   <si>
     <t>e/20</t>
   </si>
   <si>
+    <t>e/7</t>
+  </si>
+  <si>
+    <t>e/15</t>
+  </si>
+  <si>
     <t>d/4</t>
   </si>
   <si>
@@ -270,220 +306,193 @@
     <t>d/19</t>
   </si>
   <si>
-    <t xml:space="preserve">patch a/15</t>
-  </si>
-  <si>
     <t>fa0/3</t>
   </si>
   <si>
-    <t xml:space="preserve">patch c/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch a/13</t>
+    <t>patch_h</t>
+  </si>
+  <si>
+    <t>fa0/8</t>
+  </si>
+  <si>
+    <t>patch_k</t>
+  </si>
+  <si>
+    <t>fa0/31</t>
+  </si>
+  <si>
+    <t>STROP</t>
+  </si>
+  <si>
+    <t>fa0/38</t>
+  </si>
+  <si>
+    <t>fa0/39</t>
+  </si>
+  <si>
+    <t>fa0/41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco catalyst 9300 1 v fa0/4</t>
+  </si>
+  <si>
+    <t>ni_porta</t>
+  </si>
+  <si>
+    <t>k/22</t>
+  </si>
+  <si>
+    <t>h/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch b/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch c/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch b/10</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>fa0/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa0/15 LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch i/24</t>
+  </si>
+  <si>
+    <t>fa0/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch i/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch d/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch c/02</t>
+  </si>
+  <si>
+    <t>fa0/37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch b/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end device: Cyber range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch c/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch e/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Catalyst 9300 v fa0/5</t>
+  </si>
+  <si>
+    <t>fa0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch e/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco small Business fa0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch: IKT 4</t>
+  </si>
+  <si>
+    <t>G1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco catalyst 9200 G1/1</t>
+  </si>
+  <si>
+    <t>G1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripe probe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End user KVM 4</t>
+  </si>
+  <si>
+    <t>fa0/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end user Vmware 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch m/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco small buisnees fa0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco catalyst 9300 fa0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Catalyst 9200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmware 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End device: Fujitsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End device: Cyber Lab Honeypot tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmware 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patch e/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa0/16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch k16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco catalyst 3650 fa0/3</t>
+  </si>
+  <si>
+    <t>fa0/35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch i/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nekam za omaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalyst 3650 1 v fa0/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalyst 3650 2 v fa0/48</t>
   </si>
   <si>
     <t>fa0/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch d/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch h/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end device: Fujitsu</t>
-  </si>
-  <si>
-    <t>fa0/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch a/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch a/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch k/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch b/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch e/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch e/15</t>
-  </si>
-  <si>
-    <t>fa0/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch c/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch a/20</t>
-  </si>
-  <si>
-    <t>STROP</t>
-  </si>
-  <si>
-    <t>fa0/38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end device: VMware KUrir</t>
-  </si>
-  <si>
-    <t>fa0/39</t>
-  </si>
-  <si>
-    <t>fa0/41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco catalyst 9300 1 v fa0/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch b/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch c/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch b/10</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>fa0/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa0/15 LOOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch i/24</t>
-  </si>
-  <si>
-    <t>fa0/32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch i/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch d/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch c/02</t>
-  </si>
-  <si>
-    <t>fa0/37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch b/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end device: Cyber range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch c/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch e/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Catalyst 9300 v fa0/5</t>
-  </si>
-  <si>
-    <t>fa0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco small Business fa0/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch: IKT 4</t>
-  </si>
-  <si>
-    <t>G1/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco catalyst 9200 G1/1</t>
-  </si>
-  <si>
-    <t>G1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripe probe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End user KVM 4</t>
-  </si>
-  <si>
-    <t>fa0/15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end user Vmware 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">povezava 24xSSTP LT3(B414) - LT4(a203)/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch m/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco small buisnees fa0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco catalyst 9300 fa0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Catalyst 9200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyber range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmware 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End device: Fujitsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End device: Cyber Lab Honeypot tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmware 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patch e/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa0/16  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch k16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco catalyst 3650 fa0/3</t>
-  </si>
-  <si>
-    <t>fa0/35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch i/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nekam za omaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalyst 3650 1 v fa0/48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalyst 3650 2 v fa0/48</t>
   </si>
   <si>
     <t xml:space="preserve">catalyst 3650 3 v fa0/48</t>
@@ -1465,7 +1474,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1476,7 +1485,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -1484,7 +1493,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -1492,7 +1501,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -1500,7 +1509,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1508,10 +1517,26 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1581,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1567,7 +1592,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -1575,7 +1600,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -1583,10 +1608,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1665,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1643,10 +1676,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1740,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1702,34 +1751,34 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1776,8 +1825,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1785,98 +1834,94 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>84</v>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>87</v>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>88</v>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
-        <v>90</v>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>91</v>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>92</v>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1884,15 +1929,15 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1900,23 +1945,23 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1924,15 +1969,15 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -1940,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -1948,7 +1993,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +2013,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.140625"/>
+    <col customWidth="1" min="2" max="2" width="27.28125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1992,126 +2037,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
+      <c r="A2" t="s">
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2131,7 +2061,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.28125"/>
+    <col customWidth="1" min="2" max="2" width="26.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2155,51 +2085,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>119</v>
+      <c r="A2" t="s">
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2219,7 +2109,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.57421875"/>
+    <col customWidth="1" min="2" max="2" width="27.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2243,67 +2133,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>119</v>
+      <c r="A2" t="s">
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2157,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.57421875"/>
+    <col customWidth="1" min="2" max="2" width="27.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2348,98 +2182,125 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2320,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.421875"/>
+    <col customWidth="1" min="2" max="2" width="38.28125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2483,295 +2344,51 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>79</v>
+      <c r="A4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>82</v>
+      <c r="A6" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>38</v>
+      <c r="A7" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2833,6 +2450,578 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="36.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="36.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="27.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -2927,6 +3116,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2969,7 +3166,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -3104,6 +3301,54 @@
         <v>52</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -3146,7 +3391,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -3197,7 +3442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -3208,10 +3453,50 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
